--- a/tables/TableS6_global_results.xlsx
+++ b/tables/TableS6_global_results.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C157E31-7839-6648-A79C-402F9D6E7313}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53B03DF-A31E-DB4A-9429-C170CC2CACCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15500" yWindow="500" windowWidth="29220" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20340" yWindow="500" windowWidth="29220" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableSX_global_results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableSX_global_results!$A$2:$I$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableSX_global_results!$A$3:$J$15</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Calcium</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Improved</t>
   </si>
   <si>
-    <t>Billions prevented relative to current fortication</t>
-  </si>
-  <si>
     <t>Billions of inadequate intakes</t>
   </si>
   <si>
@@ -95,6 +92,15 @@
   </si>
   <si>
     <t>Improved vs. Aligned+</t>
+  </si>
+  <si>
+    <t>Expanded</t>
+  </si>
+  <si>
+    <t>(relative to no fortification)</t>
+  </si>
+  <si>
+    <t>(relative to current fortification)</t>
   </si>
 </sst>
 </file>
@@ -427,7 +433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -571,6 +577,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -633,7 +650,6 @@
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="16" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,6 +670,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1011,799 +1030,1023 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="8.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="4" style="4" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="9.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10" style="4" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="4" style="4" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="P3" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="S3" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="7">
         <v>3.7818351536102899</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.46302530383113699</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.21498080818554099</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.53902542362011396</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.25458196245710801</v>
-      </c>
-      <c r="G3" s="8">
-        <v>3.3188098497791598</v>
-      </c>
-      <c r="H3" s="7">
-        <v>3.5668543454247499</v>
-      </c>
-      <c r="I3" s="7">
-        <v>3.2428097299901801</v>
-      </c>
-      <c r="J3" s="7">
-        <v>3.5272531911531901</v>
-      </c>
-      <c r="K3" s="8">
-        <f>H3-$G3</f>
-        <v>0.24804449564559006</v>
-      </c>
-      <c r="L3" s="9">
-        <f>I3-$G3</f>
-        <v>-7.6000119788979692E-2</v>
-      </c>
-      <c r="M3" s="9">
-        <f>J3-$G3</f>
-        <v>0.20844334137403031</v>
-      </c>
-      <c r="N3" s="10"/>
-      <c r="Q3" s="20">
-        <f>M3-K3</f>
-        <v>-3.9601154271559746E-2</v>
+      <c r="C4" s="7">
+        <v>0.47259180842457799</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.21999776418010999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.46302558260440602</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.214482188946956</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4.3696106999999998E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <f>$B4-C4</f>
+        <v>3.3092433451857119</v>
+      </c>
+      <c r="I4" s="7">
+        <f>$B4-D4</f>
+        <v>3.5618373894301798</v>
+      </c>
+      <c r="J4" s="7">
+        <f>$B4-E4</f>
+        <v>3.3188095710058838</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4" si="0">$B4-F4</f>
+        <v>3.5673529646633337</v>
+      </c>
+      <c r="L4" s="7">
+        <f>$B4-G4</f>
+        <v>3.7381390466102897</v>
+      </c>
+      <c r="M4" s="20">
+        <f>$C4-D4</f>
+        <v>0.25259404424446796</v>
+      </c>
+      <c r="N4" s="9">
+        <f>$C4-E4</f>
+        <v>9.5662258201719697E-3</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:P16" si="1">$C4-F4</f>
+        <v>0.25810961947762201</v>
+      </c>
+      <c r="P4" s="9">
+        <f>$C4-G4</f>
+        <v>0.428895701424578</v>
+      </c>
+      <c r="S4" s="19">
+        <f>O4-M4</f>
+        <v>5.5155752331540464E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="7">
         <v>4.9033096191634202</v>
       </c>
-      <c r="C4" s="7">
-        <v>3.4976452371699498</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2.79390867666371</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3.56602098711932</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2.7240799899505501</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1.40566438199348</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2.1094009424997102</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1.33728863204411</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2.1792296292128701</v>
-      </c>
-      <c r="K4" s="8">
-        <f t="shared" ref="K4:K15" si="0">H4-G4</f>
-        <v>0.70373656050623024</v>
-      </c>
-      <c r="L4" s="9">
-        <f t="shared" ref="L4:L15" si="1">I4-$G4</f>
-        <v>-6.8375749949370013E-2</v>
-      </c>
-      <c r="M4" s="9">
-        <f t="shared" ref="M4:M15" si="2">J4-$G4</f>
-        <v>0.77356524721939013</v>
-      </c>
-      <c r="N4" s="11"/>
-      <c r="Q4" s="20">
-        <f>M4-K4</f>
-        <v>6.9828686713159893E-2</v>
+      <c r="C5" s="7">
+        <v>3.52790214472487</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.8073222700172602</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3.48975305906214</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.5797956578966001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.7602996319999999</v>
+      </c>
+      <c r="H5" s="8">
+        <f>$B5-C5</f>
+        <v>1.3754074744385503</v>
+      </c>
+      <c r="I5" s="7">
+        <f>$B5-D5</f>
+        <v>2.09598734914616</v>
+      </c>
+      <c r="J5" s="7">
+        <f>$B5-E5</f>
+        <v>1.4135565601012803</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ref="K5:L16" si="2">$B5-F5</f>
+        <v>2.3235139612668201</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="2"/>
+        <v>3.1430099871634205</v>
+      </c>
+      <c r="M5" s="8">
+        <f>$C5-D5</f>
+        <v>0.72057987470760976</v>
+      </c>
+      <c r="N5" s="9">
+        <f>$C5-E5</f>
+        <v>3.8149085662730009E-2</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.94810648682826981</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="1"/>
+        <v>1.76760251272487</v>
+      </c>
+      <c r="S5" s="19">
+        <f t="shared" ref="S5:S17" si="3">O5-M5</f>
+        <v>0.22752661212066005</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B6" s="7">
         <v>4.04961523791704</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C6" s="7">
         <v>3.4282444356386499</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <v>2.77986832861514</v>
       </c>
-      <c r="E5" s="7">
-        <v>3.2364475248366098</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.7348444810918</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.62137080227839503</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1.26974690930191</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.81316771308043601</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2.31477075682524</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.648376107023515</v>
-      </c>
-      <c r="L5" s="9">
-        <f t="shared" si="1"/>
-        <v>0.19179691080204098</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="2"/>
-        <v>1.693399954546845</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="Q5" s="20">
-        <f>M5-K5</f>
-        <v>1.04502384752333</v>
+      <c r="E6" s="7">
+        <v>3.22985995934238</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.7180268152613301</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.83809310400000003</v>
+      </c>
+      <c r="H6" s="8">
+        <f>$B6-C6</f>
+        <v>0.62137080227839014</v>
+      </c>
+      <c r="I6" s="7">
+        <f>$B6-D6</f>
+        <v>1.2697469093019</v>
+      </c>
+      <c r="J6" s="7">
+        <f>$B6-E6</f>
+        <v>0.81975527857466002</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>2.33158842265571</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>3.2115221339170401</v>
+      </c>
+      <c r="M6" s="8">
+        <f>$C6-D6</f>
+        <v>0.6483761070235099</v>
+      </c>
+      <c r="N6" s="9">
+        <f>$C6-E6</f>
+        <v>0.19838447629626987</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7102176203773198</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="1"/>
+        <v>2.59015133163865</v>
+      </c>
+      <c r="S6" s="19">
+        <f t="shared" si="3"/>
+        <v>1.0618415133538099</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B7" s="7">
         <v>3.4799951323483098</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="7">
         <v>3.1419049071746001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>2.5242687451496999</v>
       </c>
-      <c r="E6" s="7">
-        <v>2.9228138548747302</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1.85832668651681</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.33809022517371001</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.95572638719860203</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.55718127747357804</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1.6216684458315</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.61763616202489202</v>
-      </c>
-      <c r="L6" s="9">
-        <f t="shared" si="1"/>
-        <v>0.21909105229986803</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" si="2"/>
-        <v>1.2835782206577901</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="Q6" s="20">
-        <f>M6-K6</f>
-        <v>0.66594205863289813</v>
+      <c r="E7" s="7">
+        <v>2.9209403630511699</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.8538856320213699</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.899604073</v>
+      </c>
+      <c r="H7" s="8">
+        <f>$B7-C7</f>
+        <v>0.33809022517370968</v>
+      </c>
+      <c r="I7" s="7">
+        <f>$B7-D7</f>
+        <v>0.95572638719860992</v>
+      </c>
+      <c r="J7" s="7">
+        <f>$B7-E7</f>
+        <v>0.55905476929713993</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6261095003269399</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5803910593483099</v>
+      </c>
+      <c r="M7" s="8">
+        <f>$C7-D7</f>
+        <v>0.61763616202490024</v>
+      </c>
+      <c r="N7" s="9">
+        <f>$C7-E7</f>
+        <v>0.22096454412343025</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2880192751532302</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="1"/>
+        <v>2.2423008341746002</v>
+      </c>
+      <c r="S7" s="19">
+        <f t="shared" si="3"/>
+        <v>0.67038311312832999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B8" s="7">
         <v>2.2348684696742498</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="7">
         <v>1.9503797820062401</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>1.33630674533128</v>
       </c>
-      <c r="E7" s="7">
-        <v>1.8547894732030701</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.3022703284613599</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.284488687668014</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.89856172434297499</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.38007899647118298</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0.93259814121289697</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.61407303667496094</v>
-      </c>
-      <c r="L7" s="9">
-        <f t="shared" si="1"/>
-        <v>9.5590308803168988E-2</v>
-      </c>
-      <c r="M7" s="9">
-        <f t="shared" si="2"/>
-        <v>0.64810945354488303</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="Q7" s="20">
-        <f>M7-K7</f>
-        <v>3.4036416869922093E-2</v>
+      <c r="E8" s="7">
+        <v>1.8090024213643501</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.20953118088144</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.66904821000000003</v>
+      </c>
+      <c r="H8" s="8">
+        <f>$B8-C8</f>
+        <v>0.28448868766800972</v>
+      </c>
+      <c r="I8" s="7">
+        <f>$B8-D8</f>
+        <v>0.89856172434296977</v>
+      </c>
+      <c r="J8" s="7">
+        <f>$B8-E8</f>
+        <v>0.42586604830989971</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0253372887928098</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5658202596742496</v>
+      </c>
+      <c r="M8" s="8">
+        <f>$C8-D8</f>
+        <v>0.61407303667496005</v>
+      </c>
+      <c r="N8" s="9">
+        <f>$C8-E8</f>
+        <v>0.14137736064188999</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.74084860112480011</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="1"/>
+        <v>1.2813315720062399</v>
+      </c>
+      <c r="S8" s="19">
+        <f t="shared" si="3"/>
+        <v>0.12677556444984006</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="7">
         <v>3.6258507520371501</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>3.3764400662819898</v>
       </c>
-      <c r="D8" s="7">
-        <v>2.2956675743052801</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3.33850431483557</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1.6693901518118499</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.24941068575515901</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1.33018317773188</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.28734643720157999</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1.9564606002253</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="0"/>
-        <v>1.080772491976721</v>
-      </c>
-      <c r="L8" s="9">
-        <f t="shared" si="1"/>
-        <v>3.7935751446420973E-2</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="2"/>
-        <v>1.707049914470141</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="Q8" s="20">
-        <f>M8-K8</f>
-        <v>0.62627742249342</v>
+      <c r="D9" s="7">
+        <v>2.2948945001514001</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3.31920008194695</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.6463086441980399</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.92715352799999995</v>
+      </c>
+      <c r="H9" s="8">
+        <f>$B9-C9</f>
+        <v>0.24941068575516034</v>
+      </c>
+      <c r="I9" s="7">
+        <f>$B9-D9</f>
+        <v>1.3309562518857501</v>
+      </c>
+      <c r="J9" s="7">
+        <f>$B9-E9</f>
+        <v>0.30665067009020008</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9795421078391102</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6986972240371503</v>
+      </c>
+      <c r="M9" s="8">
+        <f>$C9-D9</f>
+        <v>1.0815455661305897</v>
+      </c>
+      <c r="N9" s="9">
+        <f>$C9-E9</f>
+        <v>5.723998433503974E-2</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>1.7301314220839499</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4492865382819899</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" si="3"/>
+        <v>0.64858585595336016</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>4.10965250783598</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>3.8731820717872099</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>3.2016168432827401</v>
       </c>
-      <c r="E9" s="7">
-        <v>3.92886454980568</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3.2045151130420999</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.236470436048765</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.90803566455323603</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.18078795803029599</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0.905137394793878</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.67156522850447109</v>
-      </c>
-      <c r="L9" s="9">
-        <f t="shared" si="1"/>
-        <v>-5.5682478018469012E-2</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="2"/>
-        <v>0.66866695874511306</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="Q9" s="20">
-        <f>M9-K9</f>
-        <v>-2.8982697593580298E-3</v>
+      <c r="E10" s="7">
+        <v>3.8386693030780998</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2.9212012751966001</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2.3238235760000001</v>
+      </c>
+      <c r="H10" s="8">
+        <f>$B10-C10</f>
+        <v>0.23647043604877016</v>
+      </c>
+      <c r="I10" s="7">
+        <f>$B10-D10</f>
+        <v>0.90803566455323992</v>
+      </c>
+      <c r="J10" s="7">
+        <f>$B10-E10</f>
+        <v>0.27098320475788018</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1884512326393799</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7858289318359799</v>
+      </c>
+      <c r="M10" s="8">
+        <f>$C10-D10</f>
+        <v>0.67156522850446976</v>
+      </c>
+      <c r="N10" s="9">
+        <f>$C10-E10</f>
+        <v>3.451276870911002E-2</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.95198079659060975</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5493584957872097</v>
+      </c>
+      <c r="S10" s="19">
+        <f t="shared" si="3"/>
+        <v>0.28041556808613999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>1.67320704548258</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>1.5130663137863001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>1.2540000620786</v>
       </c>
-      <c r="E10" s="7">
-        <v>1.4568554402046201</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.13142548492813</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.16014073169627899</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.41920698340398199</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.21635160527796299</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0.54178156055445204</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.25906625170770303</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="1"/>
-        <v>5.6210873581684001E-2</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="2"/>
-        <v>0.38164082885817308</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="Q10" s="20">
-        <f>M10-K10</f>
-        <v>0.12257457715047004</v>
+      <c r="E11" s="7">
+        <v>1.44447662208036</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.1116588374437699</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.82786127300000001</v>
+      </c>
+      <c r="H11" s="8">
+        <f>$B11-C11</f>
+        <v>0.16014073169627996</v>
+      </c>
+      <c r="I11" s="7">
+        <f>$B11-D11</f>
+        <v>0.41920698340397999</v>
+      </c>
+      <c r="J11" s="7">
+        <f>$B11-E11</f>
+        <v>0.22873042340222005</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.56154820803881011</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.84534577248258003</v>
+      </c>
+      <c r="M11" s="8">
+        <f>$C11-D11</f>
+        <v>0.25906625170770003</v>
+      </c>
+      <c r="N11" s="9">
+        <f>$C11-E11</f>
+        <v>6.8589691705940092E-2</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.40140747634253016</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.68520504078630007</v>
+      </c>
+      <c r="S11" s="19">
+        <f t="shared" si="3"/>
+        <v>0.14234122463483012</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <v>3.88023354606716</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>3.7312087497477102</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>3.3409846788783302</v>
       </c>
-      <c r="E11" s="7">
-        <v>3.6875101296454198</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3.08221158101348</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.14902479631945001</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.53924886718883003</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0.19272341642174301</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0.79802196505367895</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" si="0"/>
+      <c r="E12" s="7">
+        <v>3.6604135858056499</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3.02447102243968</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.744305438</v>
+      </c>
+      <c r="H12" s="8">
+        <f>$B12-C12</f>
+        <v>0.14902479631944976</v>
+      </c>
+      <c r="I12" s="7">
+        <f>$B12-D12</f>
+        <v>0.53924886718882981</v>
+      </c>
+      <c r="J12" s="7">
+        <f>$B12-E12</f>
+        <v>0.21981996026151007</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.85576252362747995</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>2.1359281080671599</v>
+      </c>
+      <c r="M12" s="8">
+        <f>$C12-D12</f>
         <v>0.39022407086938005</v>
       </c>
-      <c r="L11" s="9">
-        <f t="shared" si="1"/>
-        <v>4.3698620102293001E-2</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="2"/>
-        <v>0.64899716873422897</v>
-      </c>
-      <c r="N11" s="11"/>
-      <c r="Q11" s="20">
-        <f>M11-K11</f>
-        <v>0.25877309786484892</v>
+      <c r="N12" s="9">
+        <f>$C12-E12</f>
+        <v>7.0795163942060313E-2</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.70673772730803019</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="1"/>
+        <v>1.9869033117477102</v>
+      </c>
+      <c r="S12" s="19">
+        <f t="shared" si="3"/>
+        <v>0.31651365643865015</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <v>2.9641747525236601</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>2.8413389194641598</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>2.6707407034817399</v>
       </c>
-      <c r="E12" s="7">
-        <v>2.6500922596812702</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1.97453164996655</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.122835833059506</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.293434049041921</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0.31408249284238998</v>
-      </c>
-      <c r="J12" s="7">
-        <v>0.98964310255711696</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17059821598241498</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="1"/>
-        <v>0.19124665978288397</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="2"/>
-        <v>0.866807269497611</v>
-      </c>
-      <c r="N12" s="11"/>
-      <c r="Q12" s="20">
-        <f>M12-K12</f>
-        <v>0.69620905351519602</v>
+      <c r="E13" s="7">
+        <v>2.6487745567184602</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.96873231085016</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1.338198113</v>
+      </c>
+      <c r="H13" s="8">
+        <f>$B13-C13</f>
+        <v>0.1228358330595003</v>
+      </c>
+      <c r="I13" s="7">
+        <f>$B13-D13</f>
+        <v>0.29343404904192028</v>
+      </c>
+      <c r="J13" s="7">
+        <f>$B13-E13</f>
+        <v>0.31540019580519996</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.99544244167350016</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6259766395236601</v>
+      </c>
+      <c r="M13" s="8">
+        <f>$C13-D13</f>
+        <v>0.17059821598241998</v>
+      </c>
+      <c r="N13" s="9">
+        <f>$C13-E13</f>
+        <v>0.19256436274569966</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.87260660861399986</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="1"/>
+        <v>1.5031408064641598</v>
+      </c>
+      <c r="S13" s="19">
+        <f t="shared" si="3"/>
+        <v>0.70200839263157988</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>5.0322501759145499</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>4.9364407126641403</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>4.4963188860333201</v>
       </c>
-      <c r="E13" s="7">
-        <v>4.9377192971794397</v>
-      </c>
-      <c r="F13" s="7">
-        <v>4.5258772276160402</v>
-      </c>
-      <c r="G13" s="8">
-        <v>9.5809463250410995E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.53593128988122796</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9.4530878735112206E-2</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0.50637294829850699</v>
-      </c>
-      <c r="K13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.44012182663081695</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="1"/>
-        <v>-1.278584515298789E-3</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="2"/>
-        <v>0.41056348504809598</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="Q13" s="20">
-        <f>M13-K13</f>
-        <v>-2.9558341582720971E-2</v>
+      <c r="E14" s="7">
+        <v>4.9201586715556598</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4.4614428871620904</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3.8585509600000001</v>
+      </c>
+      <c r="H14" s="8">
+        <f>$B14-C14</f>
+        <v>9.5809463250409621E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <f>$B14-D14</f>
+        <v>0.53593128988122984</v>
+      </c>
+      <c r="J14" s="7">
+        <f>$B14-E14</f>
+        <v>0.11209150435889015</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.57080728875245956</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1736992159145498</v>
+      </c>
+      <c r="M14" s="8">
+        <f>$C14-D14</f>
+        <v>0.44012182663082022</v>
+      </c>
+      <c r="N14" s="9">
+        <f>$C14-E14</f>
+        <v>1.6282041108480527E-2</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.47499782550204994</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0778897526641402</v>
+      </c>
+      <c r="S14" s="19">
+        <f t="shared" si="3"/>
+        <v>3.4875998871229719E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="7">
         <v>5.0636951699998596</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C15" s="7">
         <v>5.0633847525388296</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>4.7200574811884399</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>5.0633847525388296</v>
       </c>
-      <c r="F14" s="7">
-        <v>4.8060374861665496</v>
-      </c>
-      <c r="G14" s="8">
-        <v>3.1041746103763603E-4</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.34363768881142198</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3.1041746103763603E-4</v>
-      </c>
-      <c r="J14" s="7">
-        <v>0.257657683833316</v>
-      </c>
-      <c r="K14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.34332727135038432</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="1"/>
+      <c r="F15" s="7">
+        <v>4.7200574811884399</v>
+      </c>
+      <c r="G15" s="7">
+        <v>4.7200574810000004</v>
+      </c>
+      <c r="H15" s="8">
+        <f>$B15-C15</f>
+        <v>3.1041746102999923E-4</v>
+      </c>
+      <c r="I15" s="7">
+        <f>$B15-D15</f>
+        <v>0.34363768881141965</v>
+      </c>
+      <c r="J15" s="7">
+        <f>$B15-E15</f>
+        <v>3.1041746102999923E-4</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.34363768881141965</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.34363768899985914</v>
+      </c>
+      <c r="M15" s="8">
+        <f>$C15-D15</f>
+        <v>0.34332727135038965</v>
+      </c>
+      <c r="N15" s="9">
+        <f>$C15-E15</f>
         <v>0</v>
       </c>
-      <c r="M14" s="9">
-        <f t="shared" si="2"/>
-        <v>0.25734726637227834</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="Q14" s="20">
-        <f>M14-K14</f>
-        <v>-8.5980004978105984E-2</v>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34332727135038965</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.34332727153882914</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B16" s="13">
         <v>1.0086494819607199</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C16" s="13">
         <v>1.0083658795019099</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="13">
         <v>0.99741780202469799</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E16" s="13">
         <v>1.0083658795019099</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F16" s="13">
         <v>0.99741780202469799</v>
       </c>
-      <c r="G15" s="15">
-        <v>2.8360245880758799E-4</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1.12316799360222E-2</v>
-      </c>
-      <c r="I15" s="14">
-        <v>2.8360245880758799E-4</v>
-      </c>
-      <c r="J15" s="14">
-        <v>1.12316799360222E-2</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="0"/>
-        <v>1.0948077477214612E-2</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="1"/>
+      <c r="G16" s="13">
+        <v>0.99741780199999996</v>
+      </c>
+      <c r="H16" s="14">
+        <f>$B16-C16</f>
+        <v>2.8360245880998391E-4</v>
+      </c>
+      <c r="I16" s="13">
+        <f>$B16-D16</f>
+        <v>1.1231679936021921E-2</v>
+      </c>
+      <c r="J16" s="13">
+        <f>$B16-E16</f>
+        <v>2.8360245880998391E-4</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1231679936021921E-2</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1231679960719942E-2</v>
+      </c>
+      <c r="M16" s="14">
+        <f>$C16-D16</f>
+        <v>1.0948077477211937E-2</v>
+      </c>
+      <c r="N16" s="13">
+        <f>$C16-E16</f>
         <v>0</v>
       </c>
-      <c r="M15" s="14">
-        <f t="shared" si="2"/>
-        <v>1.0948077477214612E-2</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="Q15" s="14">
-        <f>M15-K15</f>
+      <c r="O16" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0948077477211937E-2</v>
+      </c>
+      <c r="P16" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0948077501909959E-2</v>
+      </c>
+      <c r="S16" s="13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    <row r="17" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="17">
-        <f>SUM(B3:B15)</f>
+      <c r="B17" s="16">
+        <f>SUM(B4:B16)</f>
         <v>45.807337044534961</v>
       </c>
-      <c r="C16" s="17">
-        <f t="shared" ref="C16:I16" si="3">SUM(C3:C15)</f>
-        <v>38.824627131592827</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="C17" s="16">
+        <f t="shared" ref="C17:J17" si="4">SUM(C4:C16)</f>
+        <v>38.864450543741192</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="4"/>
+        <v>32.643794810412764</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="4"/>
+        <v>37.816024838650364</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="4"/>
+        <v>28.427011735511176</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="4"/>
+        <v>20.948109297000002</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="4"/>
+        <v>6.9428865007937812</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="4"/>
+        <v>13.163542234122213</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="4"/>
+        <v>7.9913122058846024</v>
+      </c>
+      <c r="K17" s="16">
+        <f>SUM(K4:K16)</f>
+        <v>17.380325309023796</v>
+      </c>
+      <c r="L17" s="16">
+        <f>SUM(L4:L16)</f>
+        <v>24.859227747534966</v>
+      </c>
+      <c r="M17" s="11">
+        <f>SUM(M4:M16)</f>
+        <v>6.2206557333284289</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" ref="N17:P17" si="5">SUM(N4:N16)</f>
+        <v>1.0484257050908226</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" si="5"/>
+        <v>10.437438808230015</v>
+      </c>
+      <c r="P17" s="16">
+        <f t="shared" si="5"/>
+        <v>17.91634124674119</v>
+      </c>
+      <c r="S17" s="16">
         <f t="shared" si="3"/>
-        <v>32.626137335218523</v>
-      </c>
-      <c r="E16" s="17">
-        <f t="shared" si="3"/>
-        <v>38.190393887046582</v>
-      </c>
-      <c r="F16" s="17">
-        <f t="shared" si="3"/>
-        <v>29.265509945047029</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="3"/>
-        <v>6.982709912942175</v>
-      </c>
-      <c r="H16" s="17">
-        <f t="shared" si="3"/>
-        <v>13.181199709316468</v>
-      </c>
-      <c r="I16" s="17">
-        <f t="shared" si="3"/>
-        <v>7.616943157488417</v>
-      </c>
-      <c r="J16" s="17">
-        <f>SUM(J3:J15)</f>
-        <v>16.541827099487964</v>
-      </c>
-      <c r="K16" s="12">
-        <f>SUM(K3:K15)</f>
-        <v>6.1984897963742958</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" ref="L16:M16" si="4">SUM(L3:L15)</f>
-        <v>0.6342332445462423</v>
-      </c>
-      <c r="M16" s="17">
-        <f t="shared" si="4"/>
-        <v>9.5591171865457945</v>
-      </c>
-      <c r="Q16" s="17">
-        <f>M16-K16</f>
-        <v>3.3606273901714987</v>
+        <v>4.2167830749015858</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="K17" s="11"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="A3:I15">
-    <sortCondition descending="1" ref="C3:C15"/>
+  <sortState ref="A4:J16">
+    <sortCondition descending="1" ref="C4:C16"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tables/TableS6_global_results.xlsx
+++ b/tables/TableS6_global_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53B03DF-A31E-DB4A-9429-C170CC2CACCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C043377D-B30C-E74E-B9BF-DA1D1F17304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20340" yWindow="500" windowWidth="29220" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="500" windowWidth="24040" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableSX_global_results" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableSX_global_results!$A$3:$J$15</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -633,21 +646,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -655,24 +664,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,9 +738,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -774,7 +778,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -880,7 +884,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1022,7 +1026,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1030,1022 +1034,1014 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="8.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="9.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10" style="4" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="4" style="4" customWidth="1"/>
-    <col min="19" max="19" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
       <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
       <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
       <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>3.7818351536102899</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.47259180842457799</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.21999776418010999</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.46302558260440602</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.214482188946956</v>
       </c>
-      <c r="G4" s="7">
-        <v>4.3696106999999998E-2</v>
-      </c>
-      <c r="H4" s="8">
-        <f>$B4-C4</f>
+      <c r="G4" s="6">
+        <v>4.3696106656645403E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:H16" si="0">$B4-C4</f>
         <v>3.3092433451857119</v>
       </c>
-      <c r="I4" s="7">
-        <f>$B4-D4</f>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I16" si="1">$B4-D4</f>
         <v>3.5618373894301798</v>
       </c>
-      <c r="J4" s="7">
-        <f>$B4-E4</f>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J16" si="2">$B4-E4</f>
         <v>3.3188095710058838</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ref="K4" si="0">$B4-F4</f>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4" si="3">$B4-F4</f>
         <v>3.5673529646633337</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <f>$B4-G4</f>
-        <v>3.7381390466102897</v>
-      </c>
-      <c r="M4" s="20">
-        <f>$C4-D4</f>
+        <v>3.7381390469536444</v>
+      </c>
+      <c r="M4" s="15">
+        <f t="shared" ref="M4:M16" si="4">$C4-D4</f>
         <v>0.25259404424446796</v>
       </c>
-      <c r="N4" s="9">
-        <f>$C4-E4</f>
+      <c r="N4" s="6">
+        <f t="shared" ref="N4:N16" si="5">$C4-E4</f>
         <v>9.5662258201719697E-3</v>
       </c>
-      <c r="O4" s="9">
-        <f t="shared" ref="O4:P16" si="1">$C4-F4</f>
+      <c r="O4" s="6">
+        <f t="shared" ref="O4:P16" si="6">$C4-F4</f>
         <v>0.25810961947762201</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="6">
         <f>$C4-G4</f>
-        <v>0.428895701424578</v>
-      </c>
-      <c r="S4" s="19">
+        <v>0.42889570176793257</v>
+      </c>
+      <c r="S4" s="6">
         <f>O4-M4</f>
         <v>5.5155752331540464E-3</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
-        <v>4.9033096191634202</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3.52790214472487</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2.8073222700172602</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.48975305906214</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2.5797956578966001</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.7602996319999999</v>
-      </c>
-      <c r="H5" s="8">
-        <f>$B5-C5</f>
-        <v>1.3754074744385503</v>
-      </c>
-      <c r="I5" s="7">
-        <f>$B5-D5</f>
-        <v>2.09598734914616</v>
-      </c>
-      <c r="J5" s="7">
-        <f>$B5-E5</f>
-        <v>1.4135565601012803</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" ref="K5:L16" si="2">$B5-F5</f>
-        <v>2.3235139612668201</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="B5" s="6">
+        <v>4.6930268470138996</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.2703638142365499</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.6952505752101099</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.2393981217228398</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.5063300914637998</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.69992965834425</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4226630327773497</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9977762718037897</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>3.1430099871634205</v>
-      </c>
-      <c r="M5" s="8">
-        <f>$C5-D5</f>
-        <v>0.72057987470760976</v>
-      </c>
-      <c r="N5" s="9">
-        <f>$C5-E5</f>
-        <v>3.8149085662730009E-2</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="1"/>
-        <v>0.94810648682826981</v>
-      </c>
-      <c r="P5" s="9">
-        <f t="shared" si="1"/>
-        <v>1.76760251272487</v>
-      </c>
-      <c r="S5" s="19">
-        <f t="shared" ref="S5:S17" si="3">O5-M5</f>
-        <v>0.22752661212066005</v>
+        <v>1.4536287252910598</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:L16" si="7">$B5-F5</f>
+        <v>2.1866967555500998</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="7"/>
+        <v>2.9930971886696494</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.57511323902643996</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="5"/>
+        <v>3.0965692513710064E-2</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="6"/>
+        <v>0.76403372277275006</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5704341558922998</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" ref="S5:S17" si="8">O5-M5</f>
+        <v>0.1889204837463101</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>4.04961523791704</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>3.4282444356386499</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>2.77986832861514</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>3.22985995934238</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>1.7180268152613301</v>
       </c>
-      <c r="G6" s="7">
-        <v>0.83809310400000003</v>
-      </c>
-      <c r="H6" s="8">
-        <f>$B6-C6</f>
+      <c r="G6" s="6">
+        <v>0.83809310423669303</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
         <v>0.62137080227839014</v>
       </c>
-      <c r="I6" s="7">
-        <f>$B6-D6</f>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
         <v>1.2697469093019</v>
       </c>
-      <c r="J6" s="7">
-        <f>$B6-E6</f>
+      <c r="J6" s="6">
+        <f t="shared" si="2"/>
         <v>0.81975527857466002</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" si="2"/>
+      <c r="K6" s="6">
+        <f t="shared" si="7"/>
         <v>2.33158842265571</v>
       </c>
-      <c r="L6" s="7">
-        <f t="shared" si="2"/>
-        <v>3.2115221339170401</v>
-      </c>
-      <c r="M6" s="8">
-        <f>$C6-D6</f>
+      <c r="L6" s="6">
+        <f t="shared" si="7"/>
+        <v>3.2115221336803472</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="4"/>
         <v>0.6483761070235099</v>
       </c>
-      <c r="N6" s="9">
-        <f>$C6-E6</f>
+      <c r="N6" s="6">
+        <f t="shared" si="5"/>
         <v>0.19838447629626987</v>
       </c>
-      <c r="O6" s="9">
-        <f t="shared" si="1"/>
+      <c r="O6" s="6">
+        <f t="shared" si="6"/>
         <v>1.7102176203773198</v>
       </c>
-      <c r="P6" s="9">
-        <f t="shared" si="1"/>
-        <v>2.59015133163865</v>
-      </c>
-      <c r="S6" s="19">
-        <f t="shared" si="3"/>
+      <c r="P6" s="6">
+        <f t="shared" si="6"/>
+        <v>2.5901513314019571</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="8"/>
         <v>1.0618415133538099</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>3.4799951323483098</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3.1419049071746001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>2.5242687451496999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>2.9209403630511699</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1.8538856320213699</v>
       </c>
-      <c r="G7" s="7">
-        <v>0.899604073</v>
-      </c>
-      <c r="H7" s="8">
-        <f>$B7-C7</f>
+      <c r="G7" s="6">
+        <v>0.89960407273474297</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
         <v>0.33809022517370968</v>
       </c>
-      <c r="I7" s="7">
-        <f>$B7-D7</f>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
         <v>0.95572638719860992</v>
       </c>
-      <c r="J7" s="7">
-        <f>$B7-E7</f>
+      <c r="J7" s="6">
+        <f t="shared" si="2"/>
         <v>0.55905476929713993</v>
       </c>
-      <c r="K7" s="7">
-        <f t="shared" si="2"/>
+      <c r="K7" s="6">
+        <f t="shared" si="7"/>
         <v>1.6261095003269399</v>
       </c>
-      <c r="L7" s="7">
-        <f t="shared" si="2"/>
-        <v>2.5803910593483099</v>
-      </c>
-      <c r="M7" s="8">
-        <f>$C7-D7</f>
+      <c r="L7" s="6">
+        <f t="shared" si="7"/>
+        <v>2.5803910596135671</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="4"/>
         <v>0.61763616202490024</v>
       </c>
-      <c r="N7" s="9">
-        <f>$C7-E7</f>
+      <c r="N7" s="6">
+        <f t="shared" si="5"/>
         <v>0.22096454412343025</v>
       </c>
-      <c r="O7" s="9">
-        <f t="shared" si="1"/>
+      <c r="O7" s="6">
+        <f t="shared" si="6"/>
         <v>1.2880192751532302</v>
       </c>
-      <c r="P7" s="9">
-        <f t="shared" si="1"/>
-        <v>2.2423008341746002</v>
-      </c>
-      <c r="S7" s="19">
-        <f t="shared" si="3"/>
+      <c r="P7" s="6">
+        <f t="shared" si="6"/>
+        <v>2.2423008344398569</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="8"/>
         <v>0.67038311312832999</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2.2348684696742498</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1.9503797820062401</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>1.33630674533128</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>1.8090024213643501</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>1.20953118088144</v>
       </c>
-      <c r="G8" s="7">
-        <v>0.66904821000000003</v>
-      </c>
-      <c r="H8" s="8">
-        <f>$B8-C8</f>
+      <c r="G8" s="6">
+        <v>0.66904821013466698</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
         <v>0.28448868766800972</v>
       </c>
-      <c r="I8" s="7">
-        <f>$B8-D8</f>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
         <v>0.89856172434296977</v>
       </c>
-      <c r="J8" s="7">
-        <f>$B8-E8</f>
+      <c r="J8" s="6">
+        <f t="shared" si="2"/>
         <v>0.42586604830989971</v>
       </c>
-      <c r="K8" s="7">
-        <f t="shared" si="2"/>
+      <c r="K8" s="6">
+        <f t="shared" si="7"/>
         <v>1.0253372887928098</v>
       </c>
-      <c r="L8" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5658202596742496</v>
-      </c>
-      <c r="M8" s="8">
-        <f>$C8-D8</f>
+      <c r="L8" s="6">
+        <f t="shared" si="7"/>
+        <v>1.5658202595395827</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="4"/>
         <v>0.61407303667496005</v>
       </c>
-      <c r="N8" s="9">
-        <f>$C8-E8</f>
+      <c r="N8" s="6">
+        <f t="shared" si="5"/>
         <v>0.14137736064188999</v>
       </c>
-      <c r="O8" s="9">
-        <f t="shared" si="1"/>
+      <c r="O8" s="6">
+        <f t="shared" si="6"/>
         <v>0.74084860112480011</v>
       </c>
-      <c r="P8" s="9">
-        <f t="shared" si="1"/>
-        <v>1.2813315720062399</v>
-      </c>
-      <c r="S8" s="19">
-        <f t="shared" si="3"/>
+      <c r="P8" s="6">
+        <f t="shared" si="6"/>
+        <v>1.281331571871573</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="8"/>
         <v>0.12677556444984006</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>3.6258507520371501</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>3.3764400662819898</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>2.2948945001514001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>3.31920008194695</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1.6463086441980399</v>
       </c>
-      <c r="G9" s="7">
-        <v>0.92715352799999995</v>
-      </c>
-      <c r="H9" s="8">
-        <f>$B9-C9</f>
+      <c r="G9" s="6">
+        <v>0.92715352802071804</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
         <v>0.24941068575516034</v>
       </c>
-      <c r="I9" s="7">
-        <f>$B9-D9</f>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>1.3309562518857501</v>
       </c>
-      <c r="J9" s="7">
-        <f>$B9-E9</f>
+      <c r="J9" s="6">
+        <f t="shared" si="2"/>
         <v>0.30665067009020008</v>
       </c>
-      <c r="K9" s="7">
-        <f t="shared" si="2"/>
+      <c r="K9" s="6">
+        <f t="shared" si="7"/>
         <v>1.9795421078391102</v>
       </c>
-      <c r="L9" s="7">
-        <f t="shared" si="2"/>
-        <v>2.6986972240371503</v>
-      </c>
-      <c r="M9" s="8">
-        <f>$C9-D9</f>
+      <c r="L9" s="6">
+        <f t="shared" si="7"/>
+        <v>2.6986972240164322</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="4"/>
         <v>1.0815455661305897</v>
       </c>
-      <c r="N9" s="9">
-        <f>$C9-E9</f>
+      <c r="N9" s="6">
+        <f t="shared" si="5"/>
         <v>5.723998433503974E-2</v>
       </c>
-      <c r="O9" s="9">
-        <f t="shared" si="1"/>
+      <c r="O9" s="6">
+        <f t="shared" si="6"/>
         <v>1.7301314220839499</v>
       </c>
-      <c r="P9" s="9">
-        <f t="shared" si="1"/>
-        <v>2.4492865382819899</v>
-      </c>
-      <c r="S9" s="19">
-        <f t="shared" si="3"/>
+      <c r="P9" s="6">
+        <f t="shared" si="6"/>
+        <v>2.4492865382612719</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="8"/>
         <v>0.64858585595336016</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>4.10965250783598</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>3.8731820717872099</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>3.2016168432827401</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>3.8386693030780998</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>2.9212012751966001</v>
       </c>
-      <c r="G10" s="7">
-        <v>2.3238235760000001</v>
-      </c>
-      <c r="H10" s="8">
-        <f>$B10-C10</f>
+      <c r="G10" s="6">
+        <v>2.3238235760220101</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
         <v>0.23647043604877016</v>
       </c>
-      <c r="I10" s="7">
-        <f>$B10-D10</f>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
         <v>0.90803566455323992</v>
       </c>
-      <c r="J10" s="7">
-        <f>$B10-E10</f>
+      <c r="J10" s="6">
+        <f t="shared" si="2"/>
         <v>0.27098320475788018</v>
       </c>
-      <c r="K10" s="7">
-        <f t="shared" si="2"/>
+      <c r="K10" s="6">
+        <f t="shared" si="7"/>
         <v>1.1884512326393799</v>
       </c>
-      <c r="L10" s="7">
-        <f t="shared" si="2"/>
-        <v>1.7858289318359799</v>
-      </c>
-      <c r="M10" s="8">
-        <f>$C10-D10</f>
+      <c r="L10" s="6">
+        <f t="shared" si="7"/>
+        <v>1.78582893181397</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="4"/>
         <v>0.67156522850446976</v>
       </c>
-      <c r="N10" s="9">
-        <f>$C10-E10</f>
+      <c r="N10" s="6">
+        <f t="shared" si="5"/>
         <v>3.451276870911002E-2</v>
       </c>
-      <c r="O10" s="9">
-        <f t="shared" si="1"/>
+      <c r="O10" s="6">
+        <f t="shared" si="6"/>
         <v>0.95198079659060975</v>
       </c>
-      <c r="P10" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5493584957872097</v>
-      </c>
-      <c r="S10" s="19">
-        <f t="shared" si="3"/>
+      <c r="P10" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5493584957651998</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="8"/>
         <v>0.28041556808613999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1.67320704548258</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1.5130663137863001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1.2540000620786</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>1.44447662208036</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>1.1116588374437699</v>
       </c>
-      <c r="G11" s="7">
-        <v>0.82786127300000001</v>
-      </c>
-      <c r="H11" s="8">
-        <f>$B11-C11</f>
+      <c r="G11" s="6">
+        <v>0.82786127338881799</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
         <v>0.16014073169627996</v>
       </c>
-      <c r="I11" s="7">
-        <f>$B11-D11</f>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
         <v>0.41920698340397999</v>
       </c>
-      <c r="J11" s="7">
-        <f>$B11-E11</f>
+      <c r="J11" s="6">
+        <f t="shared" si="2"/>
         <v>0.22873042340222005</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="2"/>
+      <c r="K11" s="6">
+        <f t="shared" si="7"/>
         <v>0.56154820803881011</v>
       </c>
-      <c r="L11" s="7">
-        <f t="shared" si="2"/>
-        <v>0.84534577248258003</v>
-      </c>
-      <c r="M11" s="8">
-        <f>$C11-D11</f>
+      <c r="L11" s="6">
+        <f t="shared" si="7"/>
+        <v>0.84534577209376205</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="4"/>
         <v>0.25906625170770003</v>
       </c>
-      <c r="N11" s="9">
-        <f>$C11-E11</f>
+      <c r="N11" s="6">
+        <f t="shared" si="5"/>
         <v>6.8589691705940092E-2</v>
       </c>
-      <c r="O11" s="9">
-        <f t="shared" si="1"/>
+      <c r="O11" s="6">
+        <f t="shared" si="6"/>
         <v>0.40140747634253016</v>
       </c>
-      <c r="P11" s="9">
-        <f t="shared" si="1"/>
-        <v>0.68520504078630007</v>
-      </c>
-      <c r="S11" s="19">
-        <f t="shared" si="3"/>
+      <c r="P11" s="6">
+        <f t="shared" si="6"/>
+        <v>0.68520504039748209</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="8"/>
         <v>0.14234122463483012</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>3.88023354606716</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>3.7312087497477102</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>3.3409846788783302</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>3.6604135858056499</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>3.02447102243968</v>
       </c>
-      <c r="G12" s="7">
-        <v>1.744305438</v>
-      </c>
-      <c r="H12" s="8">
-        <f>$B12-C12</f>
+      <c r="G12" s="6">
+        <v>1.7443054382860199</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
         <v>0.14902479631944976</v>
       </c>
-      <c r="I12" s="7">
-        <f>$B12-D12</f>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
         <v>0.53924886718882981</v>
       </c>
-      <c r="J12" s="7">
-        <f>$B12-E12</f>
+      <c r="J12" s="6">
+        <f t="shared" si="2"/>
         <v>0.21981996026151007</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="2"/>
+      <c r="K12" s="6">
+        <f t="shared" si="7"/>
         <v>0.85576252362747995</v>
       </c>
-      <c r="L12" s="7">
-        <f t="shared" si="2"/>
-        <v>2.1359281080671599</v>
-      </c>
-      <c r="M12" s="8">
-        <f>$C12-D12</f>
+      <c r="L12" s="6">
+        <f t="shared" si="7"/>
+        <v>2.1359281077811403</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" si="4"/>
         <v>0.39022407086938005</v>
       </c>
-      <c r="N12" s="9">
-        <f>$C12-E12</f>
+      <c r="N12" s="6">
+        <f t="shared" si="5"/>
         <v>7.0795163942060313E-2</v>
       </c>
-      <c r="O12" s="9">
-        <f t="shared" si="1"/>
+      <c r="O12" s="6">
+        <f t="shared" si="6"/>
         <v>0.70673772730803019</v>
       </c>
-      <c r="P12" s="9">
-        <f t="shared" si="1"/>
-        <v>1.9869033117477102</v>
-      </c>
-      <c r="S12" s="19">
-        <f t="shared" si="3"/>
+      <c r="P12" s="6">
+        <f t="shared" si="6"/>
+        <v>1.9869033114616903</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="8"/>
         <v>0.31651365643865015</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>2.9641747525236601</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>2.8413389194641598</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>2.6707407034817399</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>2.6487745567184602</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>1.96873231085016</v>
       </c>
-      <c r="G13" s="7">
-        <v>1.338198113</v>
-      </c>
-      <c r="H13" s="8">
-        <f>$B13-C13</f>
+      <c r="G13" s="6">
+        <v>1.33819811276251</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
         <v>0.1228358330595003</v>
       </c>
-      <c r="I13" s="7">
-        <f>$B13-D13</f>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>0.29343404904192028</v>
       </c>
-      <c r="J13" s="7">
-        <f>$B13-E13</f>
+      <c r="J13" s="6">
+        <f t="shared" si="2"/>
         <v>0.31540019580519996</v>
       </c>
-      <c r="K13" s="7">
-        <f t="shared" si="2"/>
+      <c r="K13" s="6">
+        <f t="shared" si="7"/>
         <v>0.99544244167350016</v>
       </c>
-      <c r="L13" s="7">
-        <f t="shared" si="2"/>
-        <v>1.6259766395236601</v>
-      </c>
-      <c r="M13" s="8">
-        <f>$C13-D13</f>
+      <c r="L13" s="6">
+        <f t="shared" si="7"/>
+        <v>1.6259766397611501</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" si="4"/>
         <v>0.17059821598241998</v>
       </c>
-      <c r="N13" s="9">
-        <f>$C13-E13</f>
+      <c r="N13" s="6">
+        <f t="shared" si="5"/>
         <v>0.19256436274569966</v>
       </c>
-      <c r="O13" s="9">
-        <f t="shared" si="1"/>
+      <c r="O13" s="6">
+        <f t="shared" si="6"/>
         <v>0.87260660861399986</v>
       </c>
-      <c r="P13" s="9">
-        <f t="shared" si="1"/>
-        <v>1.5031408064641598</v>
-      </c>
-      <c r="S13" s="19">
-        <f t="shared" si="3"/>
+      <c r="P13" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5031408067016498</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="8"/>
         <v>0.70200839263157988</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>5.0322501759145499</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>4.9364407126641403</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>4.4963188860333201</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>4.9201586715556598</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>4.4614428871620904</v>
       </c>
-      <c r="G14" s="7">
-        <v>3.8585509600000001</v>
-      </c>
-      <c r="H14" s="8">
-        <f>$B14-C14</f>
+      <c r="G14" s="6">
+        <v>3.8585509595341398</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
         <v>9.5809463250409621E-2</v>
       </c>
-      <c r="I14" s="7">
-        <f>$B14-D14</f>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
         <v>0.53593128988122984</v>
       </c>
-      <c r="J14" s="7">
-        <f>$B14-E14</f>
+      <c r="J14" s="6">
+        <f t="shared" si="2"/>
         <v>0.11209150435889015</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="2"/>
+      <c r="K14" s="6">
+        <f t="shared" si="7"/>
         <v>0.57080728875245956</v>
       </c>
-      <c r="L14" s="7">
-        <f t="shared" si="2"/>
-        <v>1.1736992159145498</v>
-      </c>
-      <c r="M14" s="8">
-        <f>$C14-D14</f>
+      <c r="L14" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1736992163804101</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" si="4"/>
         <v>0.44012182663082022</v>
       </c>
-      <c r="N14" s="9">
-        <f>$C14-E14</f>
+      <c r="N14" s="6">
+        <f t="shared" si="5"/>
         <v>1.6282041108480527E-2</v>
       </c>
-      <c r="O14" s="9">
-        <f t="shared" si="1"/>
+      <c r="O14" s="6">
+        <f t="shared" si="6"/>
         <v>0.47499782550204994</v>
       </c>
-      <c r="P14" s="9">
-        <f t="shared" si="1"/>
-        <v>1.0778897526641402</v>
-      </c>
-      <c r="S14" s="19">
-        <f t="shared" si="3"/>
+      <c r="P14" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0778897531300005</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="8"/>
         <v>3.4875998871229719E-2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>5.0636951699998596</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>5.0633847525388296</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>4.7200574811884399</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>5.0633847525388296</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>4.7200574811884399</v>
       </c>
-      <c r="G15" s="7">
-        <v>4.7200574810000004</v>
-      </c>
-      <c r="H15" s="8">
-        <f>$B15-C15</f>
+      <c r="G15" s="6">
+        <v>4.7200574811884399</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
         <v>3.1041746102999923E-4</v>
       </c>
-      <c r="I15" s="7">
-        <f>$B15-D15</f>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
         <v>0.34363768881141965</v>
       </c>
-      <c r="J15" s="7">
-        <f>$B15-E15</f>
+      <c r="J15" s="6">
+        <f t="shared" si="2"/>
         <v>3.1041746102999923E-4</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="2"/>
+      <c r="K15" s="6">
+        <f t="shared" si="7"/>
         <v>0.34363768881141965</v>
       </c>
-      <c r="L15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.34363768899985914</v>
-      </c>
-      <c r="M15" s="8">
-        <f>$C15-D15</f>
+      <c r="L15" s="6">
+        <f t="shared" si="7"/>
+        <v>0.34363768881141965</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="4"/>
         <v>0.34332727135038965</v>
       </c>
-      <c r="N15" s="9">
-        <f>$C15-E15</f>
+      <c r="N15" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O15" s="9">
-        <f t="shared" si="1"/>
+      <c r="O15" s="6">
+        <f t="shared" si="6"/>
         <v>0.34332727135038965</v>
       </c>
-      <c r="P15" s="9">
-        <f t="shared" si="1"/>
-        <v>0.34332727153882914</v>
-      </c>
-      <c r="S15" s="19">
-        <f t="shared" si="3"/>
+      <c r="P15" s="6">
+        <f t="shared" si="6"/>
+        <v>0.34332727135038965</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>1.0086494819607199</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>1.0083658795019099</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="11">
         <v>0.99741780202469799</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>1.0083658795019099</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>0.99741780202469799</v>
       </c>
-      <c r="G16" s="13">
-        <v>0.99741780199999996</v>
-      </c>
-      <c r="H16" s="14">
-        <f>$B16-C16</f>
+      <c r="G16" s="11">
+        <v>0.99741780202469799</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
         <v>2.8360245880998391E-4</v>
       </c>
-      <c r="I16" s="13">
-        <f>$B16-D16</f>
+      <c r="I16" s="11">
+        <f t="shared" si="1"/>
         <v>1.1231679936021921E-2</v>
       </c>
-      <c r="J16" s="13">
-        <f>$B16-E16</f>
+      <c r="J16" s="11">
+        <f t="shared" si="2"/>
         <v>2.8360245880998391E-4</v>
       </c>
-      <c r="K16" s="13">
-        <f t="shared" si="2"/>
+      <c r="K16" s="11">
+        <f t="shared" si="7"/>
         <v>1.1231679936021921E-2</v>
       </c>
-      <c r="L16" s="13">
-        <f t="shared" si="2"/>
-        <v>1.1231679960719942E-2</v>
-      </c>
-      <c r="M16" s="14">
-        <f>$C16-D16</f>
+      <c r="L16" s="11">
+        <f t="shared" si="7"/>
+        <v>1.1231679936021921E-2</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="4"/>
         <v>1.0948077477211937E-2</v>
       </c>
-      <c r="N16" s="13">
-        <f>$C16-E16</f>
+      <c r="N16" s="11">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O16" s="13">
-        <f t="shared" si="1"/>
+      <c r="O16" s="11">
+        <f t="shared" si="6"/>
         <v>1.0948077477211937E-2</v>
       </c>
-      <c r="P16" s="13">
-        <f t="shared" si="1"/>
-        <v>1.0948077501909959E-2</v>
-      </c>
-      <c r="S16" s="13">
-        <f t="shared" si="3"/>
+      <c r="P16" s="11">
+        <f t="shared" si="6"/>
+        <v>1.0948077477211937E-2</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <f>SUM(B4:B16)</f>
-        <v>45.807337044534961</v>
-      </c>
-      <c r="C17" s="16">
-        <f t="shared" ref="C17:J17" si="4">SUM(C4:C16)</f>
-        <v>38.864450543741192</v>
-      </c>
-      <c r="D17" s="16">
-        <f t="shared" si="4"/>
-        <v>32.643794810412764</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="4"/>
-        <v>37.816024838650364</v>
-      </c>
-      <c r="F17" s="16">
-        <f t="shared" si="4"/>
-        <v>28.427011735511176</v>
-      </c>
-      <c r="G17" s="16">
-        <f t="shared" si="4"/>
-        <v>20.948109297000002</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="4"/>
-        <v>6.9428865007937812</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="4"/>
-        <v>13.163542234122213</v>
-      </c>
-      <c r="J17" s="16">
-        <f t="shared" si="4"/>
-        <v>7.9913122058846024</v>
-      </c>
-      <c r="K17" s="16">
+        <v>45.597054272385442</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" ref="C17:J17" si="9">SUM(C4:C16)</f>
+        <v>38.606912213252869</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="9"/>
+        <v>32.531723115605615</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="9"/>
+        <v>37.565669901311061</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="9"/>
+        <v>28.353546169078374</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="9"/>
+        <v>20.887739323334355</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="9"/>
+        <v>6.990142059132582</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="9"/>
+        <v>13.065331156779843</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="9"/>
+        <v>8.0313843710743829</v>
+      </c>
+      <c r="K17" s="13">
         <f>SUM(K4:K16)</f>
-        <v>17.380325309023796</v>
-      </c>
-      <c r="L17" s="16">
+        <v>17.243508103307072</v>
+      </c>
+      <c r="L17" s="13">
         <f>SUM(L4:L16)</f>
-        <v>24.859227747534966</v>
-      </c>
-      <c r="M17" s="11">
+        <v>24.709314949051095</v>
+      </c>
+      <c r="M17" s="9">
         <f>SUM(M4:M16)</f>
-        <v>6.2206557333284289</v>
-      </c>
-      <c r="N17" s="16">
-        <f t="shared" ref="N17:P17" si="5">SUM(N4:N16)</f>
-        <v>1.0484257050908226</v>
-      </c>
-      <c r="O17" s="16">
-        <f t="shared" si="5"/>
-        <v>10.437438808230015</v>
-      </c>
-      <c r="P17" s="16">
-        <f t="shared" si="5"/>
-        <v>17.91634124674119</v>
-      </c>
-      <c r="S17" s="16">
-        <f t="shared" si="3"/>
-        <v>4.2167830749015858</v>
+        <v>6.0751890976472582</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" ref="N17:P17" si="10">SUM(N4:N16)</f>
+        <v>1.0412423119418026</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="10"/>
+        <v>10.253366044174493</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="10"/>
+        <v>17.719172889918518</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="8"/>
+        <v>4.1781769465272349</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L19" s="8">
+        <f>L17-K17</f>
+        <v>7.465806845744023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O23" s="8">
+        <f>O17-M17</f>
+        <v>4.1781769465272349</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:J16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J16">
     <sortCondition descending="1" ref="C4:C16"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tables/TableS6_global_results.xlsx
+++ b/tables/TableS6_global_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/nutrition/fortification/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C043377D-B30C-E74E-B9BF-DA1D1F17304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38DADF0-1CB3-FB42-B068-D1DD89C09AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="500" windowWidth="24040" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2045,5 +2045,6 @@
     <sortCondition descending="1" ref="C4:C16"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>